--- a/viewport/controlador/upload/Plantilla_PCPP.xlsx
+++ b/viewport/controlador/upload/Plantilla_PCPP.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="FUAS_EVALUACION" sheetId="2" r:id="rId1"/>
-    <sheet name="Detalles PCPP" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,42 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>NRO</t>
   </si>
   <si>
-    <t>NroFormato</t>
-  </si>
-  <si>
-    <t>Beneficiario</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>HIS_CLI</t>
-  </si>
-  <si>
-    <t>Servicio</t>
-  </si>
-  <si>
-    <t>Contrato</t>
-  </si>
-  <si>
-    <t>Periodo</t>
-  </si>
-  <si>
-    <t>Digitador</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
     <t>FUA</t>
-  </si>
-  <si>
-    <t>FEC. ATENCION</t>
   </si>
   <si>
     <t>HISTORIA CLINICA</t>
@@ -410,62 +379,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -475,30 +402,8 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>